--- a/01- Casos escalados JDA/Casos JDA Colmbia 20132.xlsx
+++ b/01- Casos escalados JDA/Casos JDA Colmbia 20132.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Quala-JDA'!$C$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Repremundo-JDA'!$C$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Suppla-JDA'!$C$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Suppla-JDA'!$C$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
   <si>
     <t>JIRA</t>
   </si>
@@ -96,9 +96,6 @@
 Kent Zhao</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
     <t>WMD-128447</t>
   </si>
   <si>
@@ -125,13 +122,147 @@
   </si>
   <si>
     <t>30-07-2014</t>
+  </si>
+  <si>
+    <t>Ambiguous column in list inventory commands</t>
+  </si>
+  <si>
+    <t>Concluido</t>
+  </si>
+  <si>
+    <t>519698
+ACT-186</t>
+  </si>
+  <si>
+    <t>WMD-136962</t>
+  </si>
+  <si>
+    <t>Pull request entregado por el equipo de JDA</t>
+  </si>
+  <si>
+    <t>Shinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyadarshini </t>
+  </si>
+  <si>
+    <t>Satyajit</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>Wrong reverse receipt filter</t>
+  </si>
+  <si>
+    <t>520693
+ACT-282</t>
+  </si>
+  <si>
+    <t>WMD-137321</t>
+  </si>
+  <si>
+    <t>Wrong inventory dates format in inventory display screen</t>
+  </si>
+  <si>
+    <t>Anurag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En proceso de asignacion </t>
+  </si>
+  <si>
+    <t>Saheli Dutta</t>
+  </si>
+  <si>
+    <t>520716
+ACT-291</t>
+  </si>
+  <si>
+    <t>Modify Area Configuration Wizard screen displays Error When Accessed by Facilities Layout Setup</t>
+  </si>
+  <si>
+    <t>En revision por parte del equipo ACT</t>
+  </si>
+  <si>
+    <t>Pallet Quantity does not match pick quantity</t>
+  </si>
+  <si>
+    <t>Invalid to ID / pos ID</t>
+  </si>
+  <si>
+    <t>No ha sido asignado</t>
+  </si>
+  <si>
+    <t>Nicky tian</t>
+  </si>
+  <si>
+    <t>Lot parsing does not work in the Inventory attribute Change screen</t>
+  </si>
+  <si>
+    <t>Inventory allocation issue</t>
+  </si>
+  <si>
+    <t>Pankaj</t>
+  </si>
+  <si>
+    <t>No adjusment performed in audit count</t>
+  </si>
+  <si>
+    <t>Sharanaraj</t>
+  </si>
+  <si>
+    <t>Report instance not working</t>
+  </si>
+  <si>
+    <t>AMER-WMS-NETLOGISTIK</t>
+  </si>
+  <si>
+    <t>app-server=server.url error encontrado por el equipo de netlogistik</t>
+  </si>
+  <si>
+    <t>Yes/No in English for Workflow when User in Spanish</t>
+  </si>
+  <si>
+    <t>518478
+ACT-217</t>
+  </si>
+  <si>
+    <t>Manjunatha</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>28-08-2014</t>
+  </si>
+  <si>
+    <t>23-06-2014</t>
+  </si>
+  <si>
+    <t>17-07-2014</t>
+  </si>
+  <si>
+    <t>WMD-136617</t>
+  </si>
+  <si>
+    <t>Carol Gu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El equipo de JDA ha completado la solucion en el jira WMD-136617 </t>
+  </si>
+  <si>
+    <t>El equipo de JDA no ha confirmado su solucion al equipo de netlogistik</t>
+  </si>
+  <si>
+    <t>WMD-137489
+MCS-9065</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +305,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +331,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -363,11 +512,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,6 +578,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -451,6 +639,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,10 +924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,42 +949,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="22" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
@@ -803,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>4</v>
@@ -815,12 +1007,12 @@
         <v>3</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="34.200000000000003" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -828,17 +1020,17 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -852,8 +1044,294 @@
       </c>
       <c r="N3" s="7"/>
     </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>519698</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>519955</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="18">
+        <v>41707</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>519955</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>520693</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="18">
+        <v>41768</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.2">
+      <c r="A7" s="37">
+        <v>520716</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18">
+        <v>41768</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>520808</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18">
+        <v>41768</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>520808</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>521188</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18">
+        <v>41860</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>521188</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>521233</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>41860</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>521233</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>521349</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="18">
+        <v>41860</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>521349</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>521578</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18">
+        <v>41860</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>521578</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C3"/>
+  <autoFilter ref="C1:C4">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Escalado"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
@@ -871,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,42 +1373,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="22" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
@@ -941,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>4</v>
@@ -953,33 +1431,35 @@
         <v>3</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>499229</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>18</v>
@@ -988,13 +1468,89 @@
         <v>19</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="L3" s="22">
+        <v>41646</v>
+      </c>
       <c r="M3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>505934</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="18">
+        <v>41950</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>518478</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="23">
+        <v>41891</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C3"/>
@@ -1039,42 +1595,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="22" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1085,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>4</v>
@@ -1097,10 +1653,10 @@
         <v>3</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
